--- a/experiments/cluster-size/ClusterResults.xlsx
+++ b/experiments/cluster-size/ClusterResults.xlsx
@@ -5,19 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanish/repos/smpc/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanish/repos/smpc/experiments/cluster-size/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Honest Majority" sheetId="1" r:id="rId1"/>
     <sheet name="At least 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -523,11 +520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2112011712"/>
-        <c:axId val="-2098929584"/>
+        <c:axId val="-2092346608"/>
+        <c:axId val="-2092343424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112011712"/>
+        <c:axId val="-2092346608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098929584"/>
+        <c:crossAx val="-2092343424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -577,7 +574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098929584"/>
+        <c:axId val="-2092343424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112011712"/>
+        <c:crossAx val="-2092346608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,11 +1350,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-2108072496"/>
-        <c:axId val="-2038023744"/>
+        <c:axId val="-2092277088"/>
+        <c:axId val="-2092270560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108072496"/>
+        <c:axId val="-2092277088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038023744"/>
+        <c:crossAx val="-2092270560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038023744"/>
+        <c:axId val="-2092270560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108072496"/>
+        <c:crossAx val="-2092277088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,143 +2856,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>1/12 corruption</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>1/32 corruption</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>1/128 corruption</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1024</v>
-          </cell>
-          <cell r="I2">
-            <v>127.4531808793536</v>
-          </cell>
-          <cell r="J2">
-            <v>36.875055879353603</v>
-          </cell>
-          <cell r="K2">
-            <v>15.453180879353599</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>2048</v>
-          </cell>
-          <cell r="I3">
-            <v>63.726629000000003</v>
-          </cell>
-          <cell r="J3">
-            <v>18.4375651925792</v>
-          </cell>
-          <cell r="K3">
-            <v>7.7266276925791999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>4096</v>
-          </cell>
-          <cell r="I4">
-            <v>31.863362850000001</v>
-          </cell>
-          <cell r="J4">
-            <v>9.218826</v>
-          </cell>
-          <cell r="K4">
-            <v>3.8633557558048</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>8192</v>
-          </cell>
-          <cell r="I5">
-            <v>15.931739625000001</v>
-          </cell>
-          <cell r="J5">
-            <v>4.6094667999999999</v>
-          </cell>
-          <cell r="K5">
-            <v>1.931726125</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>16384</v>
-          </cell>
-          <cell r="I6">
-            <v>7.9659403124999999</v>
-          </cell>
-          <cell r="J6">
-            <v>2.3047974999999998</v>
-          </cell>
-          <cell r="K6">
-            <v>0.96592231250000005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>32768</v>
-          </cell>
-          <cell r="I7">
-            <v>3.9830638244680001</v>
-          </cell>
-          <cell r="J7">
-            <v>1.15247575</v>
-          </cell>
-          <cell r="K7">
-            <v>0.48303115624999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>65536</v>
-          </cell>
-          <cell r="I8">
-            <v>1.991664625713</v>
-          </cell>
-          <cell r="J8">
-            <v>0.57633951305599995</v>
-          </cell>
-          <cell r="K8">
-            <v>0.24159907812500001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>131072</v>
-          </cell>
-          <cell r="I9">
-            <v>0.99609075485050003</v>
-          </cell>
-          <cell r="J9">
-            <v>0.28831294738699997</v>
-          </cell>
-          <cell r="K9">
-            <v>0.1209091469565</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3322,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
@@ -3579,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
